--- a/爆有钱online数值还原表.xlsx
+++ b/爆有钱online数值还原表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\凤梨\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubProj\Slot-Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372F9896-73B9-41DA-8F5B-9D49ED76C199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6201E921-CACD-4EE2-A7D5-FFAC749650AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J金币模型" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,13 @@
     <t>RTP</t>
   </si>
   <si>
-    <t>旋转次数序号</t>
+    <t>触发特殊游戏概率</t>
   </si>
   <si>
-    <t>剩余金币</t>
+    <t>触发免费游戏概率</t>
+  </si>
+  <si>
+    <t>触发彩金游戏概率</t>
   </si>
   <si>
     <t>押注值</t>
@@ -115,15 +118,11 @@
     <t>任务强制奖励</t>
   </si>
   <si>
-    <t>触发特殊游戏概率</t>
+    <t>剩余金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>触发免费游戏概率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发彩金游戏概率</t>
+    <t>旋转次数序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -159,6 +158,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -234,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,37 +250,40 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,6 +514,2832 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>旋转次数</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'001猪模型'!$B$11:$B$315</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="305"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2D8-4158-BE90-A86152CC4810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>剩余金币</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'001猪模型'!$C$11:$C$315</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="305"/>
+                <c:pt idx="0">
+                  <c:v>2989500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2959500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3037500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3007500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2986500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2959500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2929500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2908500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3591500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3898861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3873361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3843361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3813361</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3783361</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3757861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3727861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3700861</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4327861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4297861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4602361</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5344861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5320861</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5317861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5299861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5281861</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5256361</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5226361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5202361</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5172361</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5301361</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5271361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5622361</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5592361</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5562361</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5532361</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5802361</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5772361</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5742361</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5712361</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5682361</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5662861</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5634361</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5604361</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5586361</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6906361</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6876361</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6846361</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7846361</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8852361</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8822361</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8792361</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8762361</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8886861</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8856861</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8826861</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8799861</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8772861</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10236861</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10206861</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10176861</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10146861</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10116861</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10086861</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10056861</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10026861</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9996861</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9966861</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9936861</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9911361</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9911361</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9899361</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9893361</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9866361</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9836361</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9809361</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9779361</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10199361</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10169361</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10139361</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10469361</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10439361</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10409361</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10386861</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10356861</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10326861</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10296861</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10266861</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10236861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10206861</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10176861</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10166361</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10136361</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10106361</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10076361</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10046361</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10016361</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9989361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9959361</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9933861</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9912861</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9882861</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9863361</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9833361</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9803361</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9773361</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9743361</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9713361</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9683361</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9653361</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9623361</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9594861</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9564861</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9534861</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9549861</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9528861</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9498861</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9468861</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9449361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9428361</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9438361</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9408361</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9378361</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9370861</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9340861</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9310861</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9280861</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9250861</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9220861</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9190861</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9160861</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9133861</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9103861</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9082861</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9061861</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9031861</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9007861</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8988361</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8962861</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8932861</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8902861</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8884861</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8854861</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8824861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8794861</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8766361</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8736361</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8706361</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8676361</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8646361</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>10672861</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>10642861</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>10612861</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10582861</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10552861</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10534861</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>10504861</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10474861</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>10458361</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>10432861</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10402861</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>10377361</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10347361</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>10333861</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10303861</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>10273861</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10243861</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10219861</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>10189861</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>10159861</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10189861</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10183861</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10162861</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10132861</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10102861</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10072861</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10102861</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10072861</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10042861</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10012861</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9982861</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9952861</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10027861</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9997861</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>10027861</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9997861</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9972361</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9942361</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9912361</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9882361</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9852361</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9823861</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9793861</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9763861</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9739861</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9721861</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9691861</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9666361</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9639361</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9609361</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9629361</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9599361</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9569361</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9542361</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9512361</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>12603861</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12582861</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>12552861</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>12534861</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>12504861</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>12474861</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>12444861</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>12414861</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>12384861</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>12354861</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>12333861</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>12303861</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>12273861</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>12243861</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>12213861</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>12186861</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>12156861</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>12126861</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>12399858</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>12381858</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12351858</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>12321858</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>12291858</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>12261858</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>12240858</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>12210858</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>12180858</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12150858</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>12120858</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>12090858</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>13635314</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>13605314</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>13581314</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>13551314</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>13527314</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>13500314</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>13473314</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>13443314</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>13413314</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>13509314</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>13485314</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>13651814</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>13657814</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>13635314</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>13906814</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>13876814</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13846814</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>13816814</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>13786814</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>13783814</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>13753814</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>13723814</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13717814</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>13690814</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>13660814</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13630814</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13927083</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>13897083</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13867083</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13996083</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>13966083</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13936083</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13906083</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13876083</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13846083</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>13816083</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13795083</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13774083</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>13744083</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13714083</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13690083</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13816083</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>13792083</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13762083</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13732083</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13702083</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>13672083</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13642083</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>13612083</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>13586583</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>13556583</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>13528083</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13498083</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13468083</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>13447083</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>13451583</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>13423083</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>13397583</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>13367583</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>13357083</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>13327083</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>13300083</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>13271583</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>13247583</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>13217583</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>13196583</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>13166583</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>15298083</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>15274083</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>15244083</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>15214083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2D8-4158-BE90-A86152CC4810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="436747407"/>
+        <c:axId val="436744527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="436747407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>旋转次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436744527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436744527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>剩余金币</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436747407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41F0A61-EB59-71D9-5A9B-CF7FE0683C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,13 +3604,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
@@ -804,10 +3633,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B6:K166"/>
+  <dimension ref="B6:K315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="M193" sqref="M193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -832,58 +3661,58 @@
       <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>16</v>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>3000000</v>
       </c>
-      <c r="G7" s="15">
-        <f>1-COUNTIF(G11:G152,0)/COUNT(G11:G152)</f>
-        <v>2.1126760563380254E-2</v>
-      </c>
-      <c r="H7" s="15">
-        <f>COUNTIF(G11:G152,1)/COUNT(G11:G152)</f>
-        <v>1.4084507042253521E-2</v>
-      </c>
-      <c r="I7" s="15">
-        <f>COUNTIF(G11:G152,2)/COUNT(G11:G152)</f>
-        <v>7.0422535211267607E-3</v>
+      <c r="G7" s="10">
+        <f>1-COUNTIF(G11:G315,0)/COUNT(G11:G315)</f>
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <f>COUNTIF(G11:G315,1)/COUNT(G11:G315)</f>
+        <v>1.3114754098360701E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <f>COUNTIF(G11:G315,2)/COUNT(G11:G315)</f>
+        <v>3.27868852459016E-3</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -4454,6 +7283,9 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B153" s="1">
+        <v>142</v>
+      </c>
       <c r="C153" s="2">
         <f t="shared" si="12"/>
         <v>8824861</v>
@@ -4461,12 +7293,24 @@
       <c r="D153" s="3">
         <v>30000</v>
       </c>
+      <c r="E153" s="3">
+        <v>0</v>
+      </c>
       <c r="F153" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B154" s="1">
+        <v>143</v>
+      </c>
       <c r="C154" s="2">
         <f t="shared" si="12"/>
         <v>8794861</v>
@@ -4474,170 +7318,4050 @@
       <c r="D154" s="3">
         <v>30000</v>
       </c>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
       <c r="F154" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
+      <c r="G154" s="1">
+        <v>0</v>
+      </c>
+      <c r="H154" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B155" s="1">
+        <v>144</v>
+      </c>
       <c r="C155" s="2">
         <f t="shared" si="12"/>
-        <v>8764861</v>
+        <v>8766361</v>
       </c>
       <c r="D155" s="3">
         <v>30000</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1500</v>
       </c>
       <c r="F155" s="4">
         <f t="shared" si="11"/>
-        <v>-30000</v>
+        <v>-28500</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B156" s="1">
+        <v>145</v>
+      </c>
       <c r="C156" s="2">
         <f t="shared" si="12"/>
-        <v>8734861</v>
+        <v>8736361</v>
       </c>
       <c r="D156" s="3">
         <v>30000</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
       </c>
       <c r="F156" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B157" s="1">
+        <v>146</v>
+      </c>
       <c r="C157" s="2">
         <f t="shared" si="12"/>
-        <v>8704861</v>
+        <v>8706361</v>
       </c>
       <c r="D157" s="3">
         <v>30000</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0</v>
       </c>
       <c r="F157" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B158" s="1">
+        <v>147</v>
+      </c>
       <c r="C158" s="2">
         <f t="shared" si="12"/>
-        <v>8674861</v>
+        <v>8676361</v>
       </c>
       <c r="D158" s="3">
         <v>30000</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
       </c>
       <c r="F158" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B159" s="1">
+        <v>148</v>
+      </c>
       <c r="C159" s="2">
         <f t="shared" si="12"/>
-        <v>8644861</v>
+        <v>8646361</v>
       </c>
       <c r="D159" s="3">
         <v>30000</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0</v>
       </c>
       <c r="F159" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B160" s="1">
+        <v>149</v>
+      </c>
       <c r="C160" s="2">
         <f t="shared" si="12"/>
-        <v>8614861</v>
+        <v>10672861</v>
       </c>
       <c r="D160" s="3">
         <v>30000</v>
+      </c>
+      <c r="E160" s="3">
+        <v>2056500</v>
       </c>
       <c r="F160" s="4">
         <f t="shared" si="11"/>
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.15">
+        <v>2026500</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B161" s="1">
+        <v>150</v>
+      </c>
       <c r="C161" s="2">
         <f t="shared" si="12"/>
-        <v>8584861</v>
+        <v>10642861</v>
       </c>
       <c r="D161" s="3">
         <v>30000</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0</v>
       </c>
       <c r="F161" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B162" s="1">
+        <v>151</v>
+      </c>
       <c r="C162" s="2">
         <f t="shared" si="12"/>
-        <v>8554861</v>
+        <v>10612861</v>
       </c>
       <c r="D162" s="3">
         <v>30000</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
       </c>
       <c r="F162" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B163" s="1">
+        <v>152</v>
+      </c>
       <c r="C163" s="2">
         <f t="shared" si="12"/>
-        <v>8524861</v>
+        <v>10582861</v>
       </c>
       <c r="D163" s="3">
         <v>30000</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
       </c>
       <c r="F163" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B164" s="1">
+        <v>153</v>
+      </c>
       <c r="C164" s="2">
         <f t="shared" si="12"/>
-        <v>8494861</v>
+        <v>10552861</v>
       </c>
       <c r="D164" s="3">
         <v>30000</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
       </c>
       <c r="F164" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
       </c>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B165" s="1">
+        <v>154</v>
+      </c>
       <c r="C165" s="2">
         <f t="shared" si="12"/>
-        <v>8464861</v>
+        <v>10534861</v>
       </c>
       <c r="D165" s="3">
         <v>30000</v>
+      </c>
+      <c r="E165" s="3">
+        <v>12000</v>
       </c>
       <c r="F165" s="4">
         <f t="shared" si="11"/>
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.15">
+        <v>-18000</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B166" s="1">
+        <v>155</v>
+      </c>
       <c r="C166" s="2">
         <f t="shared" si="12"/>
-        <v>8434861</v>
+        <v>10504861</v>
       </c>
       <c r="D166" s="3">
         <v>30000</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
       </c>
       <c r="F166" s="4">
         <f t="shared" si="11"/>
         <v>-30000</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B167" s="1">
+        <v>156</v>
+      </c>
+      <c r="C167" s="2">
+        <f t="shared" ref="C167:C189" si="13">SUM(C166,F167)</f>
+        <v>10474861</v>
+      </c>
+      <c r="D167" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167" s="4">
+        <f t="shared" ref="F167:F189" si="14">SUM(-D167,E167,I167)</f>
+        <v>-30000</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B168" s="1">
+        <v>157</v>
+      </c>
+      <c r="C168" s="2">
+        <f t="shared" si="13"/>
+        <v>10458361</v>
+      </c>
+      <c r="D168" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E168" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F168" s="4">
+        <f t="shared" si="14"/>
+        <v>-16500</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B169" s="1">
+        <v>158</v>
+      </c>
+      <c r="C169" s="2">
+        <f t="shared" si="13"/>
+        <v>10432861</v>
+      </c>
+      <c r="D169" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E169" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F169" s="4">
+        <f t="shared" si="14"/>
+        <v>-25500</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B170" s="1">
+        <v>159</v>
+      </c>
+      <c r="C170" s="2">
+        <f t="shared" si="13"/>
+        <v>10402861</v>
+      </c>
+      <c r="D170" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B171" s="1">
+        <v>160</v>
+      </c>
+      <c r="C171" s="2">
+        <f t="shared" si="13"/>
+        <v>10377361</v>
+      </c>
+      <c r="D171" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E171" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F171" s="4">
+        <f t="shared" si="14"/>
+        <v>-25500</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
+      <c r="H171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B172" s="1">
+        <v>161</v>
+      </c>
+      <c r="C172" s="2">
+        <f t="shared" si="13"/>
+        <v>10347361</v>
+      </c>
+      <c r="D172" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+      <c r="F172" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B173" s="1">
+        <v>162</v>
+      </c>
+      <c r="C173" s="2">
+        <f t="shared" si="13"/>
+        <v>10333861</v>
+      </c>
+      <c r="D173" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E173" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F173" s="4">
+        <f t="shared" si="14"/>
+        <v>-13500</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B174" s="1">
+        <v>163</v>
+      </c>
+      <c r="C174" s="2">
+        <f t="shared" si="13"/>
+        <v>10303861</v>
+      </c>
+      <c r="D174" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0</v>
+      </c>
+      <c r="F174" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B175" s="1">
+        <v>164</v>
+      </c>
+      <c r="C175" s="2">
+        <f t="shared" si="13"/>
+        <v>10273861</v>
+      </c>
+      <c r="D175" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0</v>
+      </c>
+      <c r="F175" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G175" s="1">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B176" s="1">
+        <v>165</v>
+      </c>
+      <c r="C176" s="2">
+        <f t="shared" si="13"/>
+        <v>10243861</v>
+      </c>
+      <c r="D176" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0</v>
+      </c>
+      <c r="F176" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B177" s="1">
+        <v>166</v>
+      </c>
+      <c r="C177" s="2">
+        <f t="shared" si="13"/>
+        <v>10219861</v>
+      </c>
+      <c r="D177" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E177" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F177" s="4">
+        <f t="shared" si="14"/>
+        <v>-24000</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
+      <c r="H177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B178" s="1">
+        <v>167</v>
+      </c>
+      <c r="C178" s="2">
+        <f t="shared" si="13"/>
+        <v>10189861</v>
+      </c>
+      <c r="D178" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G178" s="1">
+        <v>0</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B179" s="1">
+        <v>168</v>
+      </c>
+      <c r="C179" s="2">
+        <f t="shared" si="13"/>
+        <v>10159861</v>
+      </c>
+      <c r="D179" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0</v>
+      </c>
+      <c r="H179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B180" s="1">
+        <v>169</v>
+      </c>
+      <c r="C180" s="2">
+        <f t="shared" si="13"/>
+        <v>10189861</v>
+      </c>
+      <c r="D180" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E180" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F180" s="4">
+        <f t="shared" si="14"/>
+        <v>30000</v>
+      </c>
+      <c r="G180" s="1">
+        <v>0</v>
+      </c>
+      <c r="H180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B181" s="1">
+        <v>170</v>
+      </c>
+      <c r="C181" s="2">
+        <f t="shared" si="13"/>
+        <v>10183861</v>
+      </c>
+      <c r="D181" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E181" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F181" s="4">
+        <f t="shared" si="14"/>
+        <v>-6000</v>
+      </c>
+      <c r="G181" s="1">
+        <v>0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B182" s="1">
+        <v>171</v>
+      </c>
+      <c r="C182" s="2">
+        <f t="shared" si="13"/>
+        <v>10162861</v>
+      </c>
+      <c r="D182" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E182" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F182" s="4">
+        <f t="shared" si="14"/>
+        <v>-21000</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B183" s="1">
+        <v>172</v>
+      </c>
+      <c r="C183" s="2">
+        <f t="shared" si="13"/>
+        <v>10132861</v>
+      </c>
+      <c r="D183" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G183" s="1">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B184" s="1">
+        <v>173</v>
+      </c>
+      <c r="C184" s="2">
+        <f t="shared" si="13"/>
+        <v>10102861</v>
+      </c>
+      <c r="D184" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+      <c r="F184" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
+      <c r="H184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B185" s="1">
+        <v>174</v>
+      </c>
+      <c r="C185" s="2">
+        <f t="shared" si="13"/>
+        <v>10072861</v>
+      </c>
+      <c r="D185" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+      <c r="F185" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G185" s="1">
+        <v>0</v>
+      </c>
+      <c r="H185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B186" s="1">
+        <v>175</v>
+      </c>
+      <c r="C186" s="2">
+        <f t="shared" si="13"/>
+        <v>10102861</v>
+      </c>
+      <c r="D186" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E186" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F186" s="4">
+        <f t="shared" si="14"/>
+        <v>30000</v>
+      </c>
+      <c r="G186" s="1">
+        <v>0</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B187" s="1">
+        <v>176</v>
+      </c>
+      <c r="C187" s="2">
+        <f t="shared" si="13"/>
+        <v>10072861</v>
+      </c>
+      <c r="D187" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F187" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+      <c r="H187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B188" s="1">
+        <v>177</v>
+      </c>
+      <c r="C188" s="2">
+        <f t="shared" si="13"/>
+        <v>10042861</v>
+      </c>
+      <c r="D188" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+      <c r="F188" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B189" s="1">
+        <v>178</v>
+      </c>
+      <c r="C189" s="2">
+        <f t="shared" si="13"/>
+        <v>10012861</v>
+      </c>
+      <c r="D189" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0</v>
+      </c>
+      <c r="F189" s="4">
+        <f t="shared" si="14"/>
+        <v>-30000</v>
+      </c>
+      <c r="G189" s="1">
+        <v>0</v>
+      </c>
+      <c r="H189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B190" s="1">
+        <v>179</v>
+      </c>
+      <c r="C190" s="2">
+        <f t="shared" ref="C190:C213" si="15">SUM(C189,F190)</f>
+        <v>9982861</v>
+      </c>
+      <c r="D190" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F190" s="4">
+        <f t="shared" ref="F190:F213" si="16">SUM(-D190,E190,I190)</f>
+        <v>-30000</v>
+      </c>
+      <c r="G190" s="1">
+        <v>0</v>
+      </c>
+      <c r="H190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B191" s="1">
+        <v>180</v>
+      </c>
+      <c r="C191" s="2">
+        <f t="shared" si="15"/>
+        <v>9952861</v>
+      </c>
+      <c r="D191" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0</v>
+      </c>
+      <c r="F191" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G191" s="1">
+        <v>0</v>
+      </c>
+      <c r="H191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B192" s="1">
+        <v>181</v>
+      </c>
+      <c r="C192" s="2">
+        <f t="shared" si="15"/>
+        <v>10027861</v>
+      </c>
+      <c r="D192" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E192" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F192" s="4">
+        <f t="shared" si="16"/>
+        <v>75000</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
+      <c r="H192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B193" s="1">
+        <v>182</v>
+      </c>
+      <c r="C193" s="2">
+        <f t="shared" si="15"/>
+        <v>9997861</v>
+      </c>
+      <c r="D193" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0</v>
+      </c>
+      <c r="F193" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G193" s="1">
+        <v>0</v>
+      </c>
+      <c r="H193" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B194" s="1">
+        <v>183</v>
+      </c>
+      <c r="C194" s="2">
+        <f t="shared" si="15"/>
+        <v>10027861</v>
+      </c>
+      <c r="D194" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E194" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F194" s="4">
+        <f t="shared" si="16"/>
+        <v>30000</v>
+      </c>
+      <c r="G194" s="1">
+        <v>0</v>
+      </c>
+      <c r="H194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B195" s="1">
+        <v>184</v>
+      </c>
+      <c r="C195" s="2">
+        <f t="shared" si="15"/>
+        <v>9997861</v>
+      </c>
+      <c r="D195" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0</v>
+      </c>
+      <c r="F195" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0</v>
+      </c>
+      <c r="H195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B196" s="1">
+        <v>185</v>
+      </c>
+      <c r="C196" s="2">
+        <f t="shared" si="15"/>
+        <v>9972361</v>
+      </c>
+      <c r="D196" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E196" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F196" s="4">
+        <f t="shared" si="16"/>
+        <v>-25500</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B197" s="1">
+        <v>186</v>
+      </c>
+      <c r="C197" s="2">
+        <f t="shared" si="15"/>
+        <v>9942361</v>
+      </c>
+      <c r="D197" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+      <c r="F197" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0</v>
+      </c>
+      <c r="H197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B198" s="1">
+        <v>187</v>
+      </c>
+      <c r="C198" s="2">
+        <f t="shared" si="15"/>
+        <v>9912361</v>
+      </c>
+      <c r="D198" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0</v>
+      </c>
+      <c r="F198" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G198" s="1">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B199" s="1">
+        <v>188</v>
+      </c>
+      <c r="C199" s="2">
+        <f t="shared" si="15"/>
+        <v>9882361</v>
+      </c>
+      <c r="D199" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+      <c r="F199" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0</v>
+      </c>
+      <c r="H199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B200" s="1">
+        <v>189</v>
+      </c>
+      <c r="C200" s="2">
+        <f t="shared" si="15"/>
+        <v>9852361</v>
+      </c>
+      <c r="D200" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+      <c r="F200" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
+      <c r="H200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B201" s="1">
+        <v>190</v>
+      </c>
+      <c r="C201" s="2">
+        <f t="shared" si="15"/>
+        <v>9823861</v>
+      </c>
+      <c r="D201" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F201" s="4">
+        <f t="shared" si="16"/>
+        <v>-28500</v>
+      </c>
+      <c r="G201" s="1">
+        <v>0</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B202" s="1">
+        <v>191</v>
+      </c>
+      <c r="C202" s="2">
+        <f t="shared" si="15"/>
+        <v>9793861</v>
+      </c>
+      <c r="D202" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0</v>
+      </c>
+      <c r="F202" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G202" s="1">
+        <v>0</v>
+      </c>
+      <c r="H202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B203" s="1">
+        <v>192</v>
+      </c>
+      <c r="C203" s="2">
+        <f t="shared" si="15"/>
+        <v>9763861</v>
+      </c>
+      <c r="D203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0</v>
+      </c>
+      <c r="F203" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G203" s="1">
+        <v>0</v>
+      </c>
+      <c r="H203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B204" s="1">
+        <v>193</v>
+      </c>
+      <c r="C204" s="2">
+        <f t="shared" si="15"/>
+        <v>9739861</v>
+      </c>
+      <c r="D204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E204" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F204" s="4">
+        <f t="shared" si="16"/>
+        <v>-24000</v>
+      </c>
+      <c r="G204" s="1">
+        <v>0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B205" s="1">
+        <v>194</v>
+      </c>
+      <c r="C205" s="2">
+        <f t="shared" si="15"/>
+        <v>9721861</v>
+      </c>
+      <c r="D205" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E205" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F205" s="4">
+        <f t="shared" si="16"/>
+        <v>-18000</v>
+      </c>
+      <c r="G205" s="1">
+        <v>0</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B206" s="1">
+        <v>195</v>
+      </c>
+      <c r="C206" s="2">
+        <f t="shared" si="15"/>
+        <v>9691861</v>
+      </c>
+      <c r="D206" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F206" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G206" s="1">
+        <v>0</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B207" s="1">
+        <v>196</v>
+      </c>
+      <c r="C207" s="2">
+        <f t="shared" si="15"/>
+        <v>9666361</v>
+      </c>
+      <c r="D207" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E207" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F207" s="4">
+        <f t="shared" si="16"/>
+        <v>-25500</v>
+      </c>
+      <c r="G207" s="1">
+        <v>0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B208" s="1">
+        <v>197</v>
+      </c>
+      <c r="C208" s="2">
+        <f t="shared" si="15"/>
+        <v>9639361</v>
+      </c>
+      <c r="D208" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E208" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F208" s="4">
+        <f t="shared" si="16"/>
+        <v>-27000</v>
+      </c>
+      <c r="G208" s="1">
+        <v>0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B209" s="1">
+        <v>198</v>
+      </c>
+      <c r="C209" s="2">
+        <f t="shared" si="15"/>
+        <v>9609361</v>
+      </c>
+      <c r="D209" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0</v>
+      </c>
+      <c r="F209" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G209" s="1">
+        <v>0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B210" s="1">
+        <v>199</v>
+      </c>
+      <c r="C210" s="2">
+        <f t="shared" si="15"/>
+        <v>9629361</v>
+      </c>
+      <c r="D210" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0</v>
+      </c>
+      <c r="F210" s="4">
+        <f t="shared" si="16"/>
+        <v>20000</v>
+      </c>
+      <c r="G210" s="1">
+        <v>0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B211" s="1">
+        <v>200</v>
+      </c>
+      <c r="C211" s="2">
+        <f t="shared" si="15"/>
+        <v>9599361</v>
+      </c>
+      <c r="D211" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0</v>
+      </c>
+      <c r="F211" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G211" s="1">
+        <v>0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B212" s="1">
+        <v>201</v>
+      </c>
+      <c r="C212" s="2">
+        <f t="shared" si="15"/>
+        <v>9569361</v>
+      </c>
+      <c r="D212" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0</v>
+      </c>
+      <c r="F212" s="4">
+        <f t="shared" si="16"/>
+        <v>-30000</v>
+      </c>
+      <c r="G212" s="1">
+        <v>0</v>
+      </c>
+      <c r="H212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B213" s="1">
+        <v>202</v>
+      </c>
+      <c r="C213" s="2">
+        <f t="shared" si="15"/>
+        <v>9542361</v>
+      </c>
+      <c r="D213" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E213" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F213" s="4">
+        <f t="shared" si="16"/>
+        <v>-27000</v>
+      </c>
+      <c r="G213" s="1">
+        <v>0</v>
+      </c>
+      <c r="H213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B214" s="1">
+        <v>203</v>
+      </c>
+      <c r="C214" s="2">
+        <f t="shared" ref="C214:C251" si="17">SUM(C213,F214)</f>
+        <v>9512361</v>
+      </c>
+      <c r="D214" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0</v>
+      </c>
+      <c r="F214" s="4">
+        <f t="shared" ref="F214:F251" si="18">SUM(-D214,E214,I214)</f>
+        <v>-30000</v>
+      </c>
+      <c r="G214" s="1">
+        <v>0</v>
+      </c>
+      <c r="H214" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B215" s="1">
+        <v>204</v>
+      </c>
+      <c r="C215" s="2">
+        <f t="shared" si="17"/>
+        <v>12603861</v>
+      </c>
+      <c r="D215" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E215" s="3">
+        <v>3121500</v>
+      </c>
+      <c r="F215" s="4">
+        <f t="shared" si="18"/>
+        <v>3091500</v>
+      </c>
+      <c r="G215" s="1">
+        <v>0</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B216" s="1">
+        <v>205</v>
+      </c>
+      <c r="C216" s="2">
+        <f t="shared" si="17"/>
+        <v>12582861</v>
+      </c>
+      <c r="D216" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E216" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F216" s="4">
+        <f t="shared" si="18"/>
+        <v>-21000</v>
+      </c>
+      <c r="G216" s="1">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B217" s="1">
+        <v>206</v>
+      </c>
+      <c r="C217" s="2">
+        <f t="shared" si="17"/>
+        <v>12552861</v>
+      </c>
+      <c r="D217" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0</v>
+      </c>
+      <c r="F217" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
+      <c r="H217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B218" s="1">
+        <v>207</v>
+      </c>
+      <c r="C218" s="2">
+        <f t="shared" si="17"/>
+        <v>12534861</v>
+      </c>
+      <c r="D218" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E218" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F218" s="4">
+        <f t="shared" si="18"/>
+        <v>-18000</v>
+      </c>
+      <c r="G218" s="1">
+        <v>0</v>
+      </c>
+      <c r="H218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B219" s="1">
+        <v>208</v>
+      </c>
+      <c r="C219" s="2">
+        <f t="shared" si="17"/>
+        <v>12504861</v>
+      </c>
+      <c r="D219" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+      <c r="F219" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G219" s="1">
+        <v>0</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B220" s="1">
+        <v>209</v>
+      </c>
+      <c r="C220" s="2">
+        <f t="shared" si="17"/>
+        <v>12474861</v>
+      </c>
+      <c r="D220" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0</v>
+      </c>
+      <c r="F220" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G220" s="1">
+        <v>0</v>
+      </c>
+      <c r="H220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B221" s="1">
+        <v>210</v>
+      </c>
+      <c r="C221" s="2">
+        <f t="shared" si="17"/>
+        <v>12444861</v>
+      </c>
+      <c r="D221" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0</v>
+      </c>
+      <c r="F221" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G221" s="1">
+        <v>0</v>
+      </c>
+      <c r="H221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B222" s="1">
+        <v>211</v>
+      </c>
+      <c r="C222" s="2">
+        <f t="shared" si="17"/>
+        <v>12414861</v>
+      </c>
+      <c r="D222" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0</v>
+      </c>
+      <c r="F222" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G222" s="1">
+        <v>0</v>
+      </c>
+      <c r="H222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B223" s="1">
+        <v>212</v>
+      </c>
+      <c r="C223" s="2">
+        <f t="shared" si="17"/>
+        <v>12384861</v>
+      </c>
+      <c r="D223" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0</v>
+      </c>
+      <c r="F223" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G223" s="1">
+        <v>0</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B224" s="1">
+        <v>213</v>
+      </c>
+      <c r="C224" s="2">
+        <f t="shared" si="17"/>
+        <v>12354861</v>
+      </c>
+      <c r="D224" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0</v>
+      </c>
+      <c r="F224" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G224" s="1">
+        <v>0</v>
+      </c>
+      <c r="H224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B225" s="1">
+        <v>214</v>
+      </c>
+      <c r="C225" s="2">
+        <f t="shared" si="17"/>
+        <v>12333861</v>
+      </c>
+      <c r="D225" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E225" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F225" s="4">
+        <f t="shared" si="18"/>
+        <v>-21000</v>
+      </c>
+      <c r="G225" s="1">
+        <v>0</v>
+      </c>
+      <c r="H225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B226" s="1">
+        <v>215</v>
+      </c>
+      <c r="C226" s="2">
+        <f t="shared" si="17"/>
+        <v>12303861</v>
+      </c>
+      <c r="D226" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F226" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G226" s="1">
+        <v>0</v>
+      </c>
+      <c r="H226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B227" s="1">
+        <v>216</v>
+      </c>
+      <c r="C227" s="2">
+        <f t="shared" si="17"/>
+        <v>12273861</v>
+      </c>
+      <c r="D227" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0</v>
+      </c>
+      <c r="F227" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G227" s="1">
+        <v>0</v>
+      </c>
+      <c r="H227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B228" s="1">
+        <v>217</v>
+      </c>
+      <c r="C228" s="2">
+        <f t="shared" si="17"/>
+        <v>12243861</v>
+      </c>
+      <c r="D228" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0</v>
+      </c>
+      <c r="F228" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G228" s="1">
+        <v>0</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B229" s="1">
+        <v>218</v>
+      </c>
+      <c r="C229" s="2">
+        <f t="shared" si="17"/>
+        <v>12213861</v>
+      </c>
+      <c r="D229" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0</v>
+      </c>
+      <c r="F229" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0</v>
+      </c>
+      <c r="H229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B230" s="1">
+        <v>219</v>
+      </c>
+      <c r="C230" s="2">
+        <f t="shared" si="17"/>
+        <v>12186861</v>
+      </c>
+      <c r="D230" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E230" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F230" s="4">
+        <f t="shared" si="18"/>
+        <v>-27000</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0</v>
+      </c>
+      <c r="H230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B231" s="1">
+        <v>220</v>
+      </c>
+      <c r="C231" s="2">
+        <f t="shared" si="17"/>
+        <v>12156861</v>
+      </c>
+      <c r="D231" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0</v>
+      </c>
+      <c r="F231" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B232" s="1">
+        <v>221</v>
+      </c>
+      <c r="C232" s="2">
+        <f t="shared" si="17"/>
+        <v>12126861</v>
+      </c>
+      <c r="D232" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0</v>
+      </c>
+      <c r="F232" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G232" s="1">
+        <v>0</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B233" s="1">
+        <v>222</v>
+      </c>
+      <c r="C233" s="2">
+        <f t="shared" si="17"/>
+        <v>12399858</v>
+      </c>
+      <c r="D233" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E233" s="3">
+        <v>302997</v>
+      </c>
+      <c r="F233" s="4">
+        <f t="shared" si="18"/>
+        <v>272997</v>
+      </c>
+      <c r="G233" s="1">
+        <v>0</v>
+      </c>
+      <c r="H233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B234" s="1">
+        <v>223</v>
+      </c>
+      <c r="C234" s="2">
+        <f t="shared" si="17"/>
+        <v>12381858</v>
+      </c>
+      <c r="D234" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E234" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F234" s="4">
+        <f t="shared" si="18"/>
+        <v>-18000</v>
+      </c>
+      <c r="G234" s="1">
+        <v>0</v>
+      </c>
+      <c r="H234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B235" s="1">
+        <v>224</v>
+      </c>
+      <c r="C235" s="2">
+        <f t="shared" si="17"/>
+        <v>12351858</v>
+      </c>
+      <c r="D235" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0</v>
+      </c>
+      <c r="F235" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G235" s="1">
+        <v>0</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B236" s="1">
+        <v>225</v>
+      </c>
+      <c r="C236" s="2">
+        <f t="shared" si="17"/>
+        <v>12321858</v>
+      </c>
+      <c r="D236" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0</v>
+      </c>
+      <c r="F236" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G236" s="1">
+        <v>0</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B237" s="1">
+        <v>226</v>
+      </c>
+      <c r="C237" s="2">
+        <f t="shared" si="17"/>
+        <v>12291858</v>
+      </c>
+      <c r="D237" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E237" s="3">
+        <v>0</v>
+      </c>
+      <c r="F237" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G237" s="1">
+        <v>0</v>
+      </c>
+      <c r="H237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B238" s="1">
+        <v>227</v>
+      </c>
+      <c r="C238" s="2">
+        <f t="shared" si="17"/>
+        <v>12261858</v>
+      </c>
+      <c r="D238" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E238" s="3">
+        <v>0</v>
+      </c>
+      <c r="F238" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G238" s="1">
+        <v>0</v>
+      </c>
+      <c r="H238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B239" s="1">
+        <v>228</v>
+      </c>
+      <c r="C239" s="2">
+        <f t="shared" si="17"/>
+        <v>12240858</v>
+      </c>
+      <c r="D239" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E239" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F239" s="4">
+        <f t="shared" si="18"/>
+        <v>-21000</v>
+      </c>
+      <c r="G239" s="1">
+        <v>0</v>
+      </c>
+      <c r="H239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B240" s="1">
+        <v>229</v>
+      </c>
+      <c r="C240" s="2">
+        <f t="shared" si="17"/>
+        <v>12210858</v>
+      </c>
+      <c r="D240" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0</v>
+      </c>
+      <c r="F240" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G240" s="1">
+        <v>0</v>
+      </c>
+      <c r="H240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B241" s="1">
+        <v>230</v>
+      </c>
+      <c r="C241" s="2">
+        <f t="shared" si="17"/>
+        <v>12180858</v>
+      </c>
+      <c r="D241" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0</v>
+      </c>
+      <c r="F241" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G241" s="1">
+        <v>0</v>
+      </c>
+      <c r="H241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B242" s="1">
+        <v>231</v>
+      </c>
+      <c r="C242" s="2">
+        <f t="shared" si="17"/>
+        <v>12150858</v>
+      </c>
+      <c r="D242" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0</v>
+      </c>
+      <c r="F242" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G242" s="1">
+        <v>0</v>
+      </c>
+      <c r="H242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B243" s="1">
+        <v>232</v>
+      </c>
+      <c r="C243" s="2">
+        <f t="shared" si="17"/>
+        <v>12120858</v>
+      </c>
+      <c r="D243" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0</v>
+      </c>
+      <c r="F243" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G243" s="1">
+        <v>0</v>
+      </c>
+      <c r="H243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B244" s="1">
+        <v>233</v>
+      </c>
+      <c r="C244" s="2">
+        <f t="shared" si="17"/>
+        <v>12090858</v>
+      </c>
+      <c r="D244" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0</v>
+      </c>
+      <c r="F244" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G244" s="1">
+        <v>0</v>
+      </c>
+      <c r="H244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B245" s="1">
+        <v>234</v>
+      </c>
+      <c r="C245" s="2">
+        <f t="shared" si="17"/>
+        <v>13635314</v>
+      </c>
+      <c r="D245" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E245" s="3">
+        <v>1574456</v>
+      </c>
+      <c r="F245" s="4">
+        <f t="shared" si="18"/>
+        <v>1544456</v>
+      </c>
+      <c r="G245" s="1">
+        <v>0</v>
+      </c>
+      <c r="H245" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B246" s="1">
+        <v>235</v>
+      </c>
+      <c r="C246" s="2">
+        <f t="shared" si="17"/>
+        <v>13605314</v>
+      </c>
+      <c r="D246" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0</v>
+      </c>
+      <c r="F246" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G246" s="1">
+        <v>0</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B247" s="1">
+        <v>236</v>
+      </c>
+      <c r="C247" s="2">
+        <f t="shared" si="17"/>
+        <v>13581314</v>
+      </c>
+      <c r="D247" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E247" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F247" s="4">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+      <c r="G247" s="1">
+        <v>0</v>
+      </c>
+      <c r="H247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B248" s="1">
+        <v>237</v>
+      </c>
+      <c r="C248" s="2">
+        <f t="shared" si="17"/>
+        <v>13551314</v>
+      </c>
+      <c r="D248" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E248" s="3">
+        <v>0</v>
+      </c>
+      <c r="F248" s="4">
+        <f t="shared" si="18"/>
+        <v>-30000</v>
+      </c>
+      <c r="G248" s="1">
+        <v>0</v>
+      </c>
+      <c r="H248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B249" s="1">
+        <v>238</v>
+      </c>
+      <c r="C249" s="2">
+        <f t="shared" si="17"/>
+        <v>13527314</v>
+      </c>
+      <c r="D249" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E249" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F249" s="4">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+      <c r="G249" s="1">
+        <v>0</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B250" s="1">
+        <v>239</v>
+      </c>
+      <c r="C250" s="2">
+        <f t="shared" si="17"/>
+        <v>13500314</v>
+      </c>
+      <c r="D250" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E250" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F250" s="4">
+        <f t="shared" si="18"/>
+        <v>-27000</v>
+      </c>
+      <c r="G250" s="1">
+        <v>0</v>
+      </c>
+      <c r="H250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B251" s="1">
+        <v>240</v>
+      </c>
+      <c r="C251" s="2">
+        <f t="shared" si="17"/>
+        <v>13473314</v>
+      </c>
+      <c r="D251" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E251" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F251" s="4">
+        <f t="shared" si="18"/>
+        <v>-27000</v>
+      </c>
+      <c r="G251" s="1">
+        <v>0</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B252" s="1">
+        <v>241</v>
+      </c>
+      <c r="C252" s="2">
+        <f t="shared" ref="C252:C288" si="19">SUM(C251,F252)</f>
+        <v>13443314</v>
+      </c>
+      <c r="D252" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E252" s="3">
+        <v>0</v>
+      </c>
+      <c r="F252" s="4">
+        <f t="shared" ref="F252:F288" si="20">SUM(-D252,E252,I252)</f>
+        <v>-30000</v>
+      </c>
+      <c r="G252" s="1">
+        <v>0</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B253" s="1">
+        <v>242</v>
+      </c>
+      <c r="C253" s="2">
+        <f t="shared" si="19"/>
+        <v>13413314</v>
+      </c>
+      <c r="D253" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0</v>
+      </c>
+      <c r="F253" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G253" s="1">
+        <v>0</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B254" s="1">
+        <v>243</v>
+      </c>
+      <c r="C254" s="2">
+        <f t="shared" si="19"/>
+        <v>13509314</v>
+      </c>
+      <c r="D254" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E254" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F254" s="4">
+        <f t="shared" si="20"/>
+        <v>96000</v>
+      </c>
+      <c r="G254" s="1">
+        <v>0</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B255" s="1">
+        <v>244</v>
+      </c>
+      <c r="C255" s="2">
+        <f t="shared" si="19"/>
+        <v>13485314</v>
+      </c>
+      <c r="D255" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E255" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F255" s="4">
+        <f t="shared" si="20"/>
+        <v>-24000</v>
+      </c>
+      <c r="G255" s="1">
+        <v>0</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B256" s="1">
+        <v>245</v>
+      </c>
+      <c r="C256" s="2">
+        <f t="shared" si="19"/>
+        <v>13651814</v>
+      </c>
+      <c r="D256" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E256" s="3">
+        <v>196500</v>
+      </c>
+      <c r="F256" s="4">
+        <f t="shared" si="20"/>
+        <v>166500</v>
+      </c>
+      <c r="G256" s="1">
+        <v>0</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B257" s="1">
+        <v>246</v>
+      </c>
+      <c r="C257" s="2">
+        <f t="shared" si="19"/>
+        <v>13657814</v>
+      </c>
+      <c r="D257" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E257" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F257" s="4">
+        <f t="shared" si="20"/>
+        <v>6000</v>
+      </c>
+      <c r="G257" s="1">
+        <v>0</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B258" s="1">
+        <v>247</v>
+      </c>
+      <c r="C258" s="2">
+        <f t="shared" si="19"/>
+        <v>13635314</v>
+      </c>
+      <c r="D258" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E258" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F258" s="4">
+        <f t="shared" si="20"/>
+        <v>-22500</v>
+      </c>
+      <c r="G258" s="1">
+        <v>0</v>
+      </c>
+      <c r="H258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B259" s="1">
+        <v>248</v>
+      </c>
+      <c r="C259" s="2">
+        <f t="shared" si="19"/>
+        <v>13906814</v>
+      </c>
+      <c r="D259" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E259" s="3">
+        <v>301500</v>
+      </c>
+      <c r="F259" s="4">
+        <f t="shared" si="20"/>
+        <v>271500</v>
+      </c>
+      <c r="G259" s="1">
+        <v>0</v>
+      </c>
+      <c r="H259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B260" s="1">
+        <v>249</v>
+      </c>
+      <c r="C260" s="2">
+        <f t="shared" si="19"/>
+        <v>13876814</v>
+      </c>
+      <c r="D260" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E260" s="3">
+        <v>0</v>
+      </c>
+      <c r="F260" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G260" s="1">
+        <v>0</v>
+      </c>
+      <c r="H260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B261" s="1">
+        <v>250</v>
+      </c>
+      <c r="C261" s="2">
+        <f t="shared" si="19"/>
+        <v>13846814</v>
+      </c>
+      <c r="D261" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E261" s="3">
+        <v>0</v>
+      </c>
+      <c r="F261" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G261" s="1">
+        <v>0</v>
+      </c>
+      <c r="H261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B262" s="1">
+        <v>251</v>
+      </c>
+      <c r="C262" s="2">
+        <f t="shared" si="19"/>
+        <v>13816814</v>
+      </c>
+      <c r="D262" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E262" s="3">
+        <v>0</v>
+      </c>
+      <c r="F262" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G262" s="1">
+        <v>0</v>
+      </c>
+      <c r="H262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B263" s="1">
+        <v>252</v>
+      </c>
+      <c r="C263" s="2">
+        <f t="shared" si="19"/>
+        <v>13786814</v>
+      </c>
+      <c r="D263" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E263" s="3">
+        <v>0</v>
+      </c>
+      <c r="F263" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G263" s="1">
+        <v>0</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B264" s="1">
+        <v>253</v>
+      </c>
+      <c r="C264" s="2">
+        <f t="shared" si="19"/>
+        <v>13783814</v>
+      </c>
+      <c r="D264" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E264" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F264" s="4">
+        <f t="shared" si="20"/>
+        <v>-3000</v>
+      </c>
+      <c r="G264" s="1">
+        <v>0</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B265" s="1">
+        <v>254</v>
+      </c>
+      <c r="C265" s="2">
+        <f t="shared" si="19"/>
+        <v>13753814</v>
+      </c>
+      <c r="D265" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+      <c r="F265" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G265" s="1">
+        <v>0</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B266" s="1">
+        <v>255</v>
+      </c>
+      <c r="C266" s="2">
+        <f t="shared" si="19"/>
+        <v>13723814</v>
+      </c>
+      <c r="D266" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E266" s="3">
+        <v>0</v>
+      </c>
+      <c r="F266" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G266" s="1">
+        <v>0</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B267" s="1">
+        <v>256</v>
+      </c>
+      <c r="C267" s="2">
+        <f t="shared" si="19"/>
+        <v>13717814</v>
+      </c>
+      <c r="D267" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E267" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F267" s="4">
+        <f t="shared" si="20"/>
+        <v>-6000</v>
+      </c>
+      <c r="G267" s="1">
+        <v>0</v>
+      </c>
+      <c r="H267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B268" s="1">
+        <v>257</v>
+      </c>
+      <c r="C268" s="2">
+        <f t="shared" si="19"/>
+        <v>13690814</v>
+      </c>
+      <c r="D268" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E268" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F268" s="4">
+        <f t="shared" si="20"/>
+        <v>-27000</v>
+      </c>
+      <c r="G268" s="1">
+        <v>0</v>
+      </c>
+      <c r="H268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B269" s="1">
+        <v>258</v>
+      </c>
+      <c r="C269" s="2">
+        <f t="shared" si="19"/>
+        <v>13660814</v>
+      </c>
+      <c r="D269" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E269" s="3">
+        <v>0</v>
+      </c>
+      <c r="F269" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G269" s="1">
+        <v>0</v>
+      </c>
+      <c r="H269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B270" s="1">
+        <v>259</v>
+      </c>
+      <c r="C270" s="2">
+        <f t="shared" si="19"/>
+        <v>13630814</v>
+      </c>
+      <c r="D270" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E270" s="3">
+        <v>0</v>
+      </c>
+      <c r="F270" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G270" s="1">
+        <v>0</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B271" s="1">
+        <v>260</v>
+      </c>
+      <c r="C271" s="2">
+        <f t="shared" si="19"/>
+        <v>13927083</v>
+      </c>
+      <c r="D271" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E271" s="3">
+        <v>326269</v>
+      </c>
+      <c r="F271" s="4">
+        <f t="shared" si="20"/>
+        <v>296269</v>
+      </c>
+      <c r="G271" s="1">
+        <v>0</v>
+      </c>
+      <c r="H271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B272" s="1">
+        <v>261</v>
+      </c>
+      <c r="C272" s="2">
+        <f t="shared" si="19"/>
+        <v>13897083</v>
+      </c>
+      <c r="D272" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E272" s="3">
+        <v>0</v>
+      </c>
+      <c r="F272" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G272" s="1">
+        <v>0</v>
+      </c>
+      <c r="H272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B273" s="1">
+        <v>262</v>
+      </c>
+      <c r="C273" s="2">
+        <f t="shared" si="19"/>
+        <v>13867083</v>
+      </c>
+      <c r="D273" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E273" s="3">
+        <v>0</v>
+      </c>
+      <c r="F273" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G273" s="1">
+        <v>0</v>
+      </c>
+      <c r="H273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B274" s="1">
+        <v>263</v>
+      </c>
+      <c r="C274" s="2">
+        <f t="shared" si="19"/>
+        <v>13996083</v>
+      </c>
+      <c r="D274" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E274" s="3">
+        <v>159000</v>
+      </c>
+      <c r="F274" s="4">
+        <f t="shared" si="20"/>
+        <v>129000</v>
+      </c>
+      <c r="G274" s="1">
+        <v>0</v>
+      </c>
+      <c r="H274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B275" s="1">
+        <v>264</v>
+      </c>
+      <c r="C275" s="2">
+        <f t="shared" si="19"/>
+        <v>13966083</v>
+      </c>
+      <c r="D275" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E275" s="3">
+        <v>0</v>
+      </c>
+      <c r="F275" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G275" s="1">
+        <v>0</v>
+      </c>
+      <c r="H275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B276" s="1">
+        <v>265</v>
+      </c>
+      <c r="C276" s="2">
+        <f t="shared" si="19"/>
+        <v>13936083</v>
+      </c>
+      <c r="D276" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E276" s="3">
+        <v>0</v>
+      </c>
+      <c r="F276" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G276" s="1">
+        <v>0</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B277" s="1">
+        <v>266</v>
+      </c>
+      <c r="C277" s="2">
+        <f t="shared" si="19"/>
+        <v>13906083</v>
+      </c>
+      <c r="D277" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E277" s="3">
+        <v>0</v>
+      </c>
+      <c r="F277" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G277" s="1">
+        <v>0</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B278" s="1">
+        <v>267</v>
+      </c>
+      <c r="C278" s="2">
+        <f t="shared" si="19"/>
+        <v>13876083</v>
+      </c>
+      <c r="D278" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E278" s="3">
+        <v>0</v>
+      </c>
+      <c r="F278" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G278" s="1">
+        <v>0</v>
+      </c>
+      <c r="H278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B279" s="1">
+        <v>268</v>
+      </c>
+      <c r="C279" s="2">
+        <f t="shared" si="19"/>
+        <v>13846083</v>
+      </c>
+      <c r="D279" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E279" s="3">
+        <v>0</v>
+      </c>
+      <c r="F279" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G279" s="1">
+        <v>0</v>
+      </c>
+      <c r="H279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B280" s="1">
+        <v>269</v>
+      </c>
+      <c r="C280" s="2">
+        <f t="shared" si="19"/>
+        <v>13816083</v>
+      </c>
+      <c r="D280" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E280" s="3">
+        <v>0</v>
+      </c>
+      <c r="F280" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G280" s="1">
+        <v>0</v>
+      </c>
+      <c r="H280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B281" s="1">
+        <v>270</v>
+      </c>
+      <c r="C281" s="2">
+        <f t="shared" si="19"/>
+        <v>13795083</v>
+      </c>
+      <c r="D281" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E281" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F281" s="4">
+        <f t="shared" si="20"/>
+        <v>-21000</v>
+      </c>
+      <c r="G281" s="1">
+        <v>0</v>
+      </c>
+      <c r="H281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B282" s="1">
+        <v>271</v>
+      </c>
+      <c r="C282" s="2">
+        <f t="shared" si="19"/>
+        <v>13774083</v>
+      </c>
+      <c r="D282" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E282" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F282" s="4">
+        <f t="shared" si="20"/>
+        <v>-21000</v>
+      </c>
+      <c r="G282" s="1">
+        <v>0</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B283" s="1">
+        <v>272</v>
+      </c>
+      <c r="C283" s="2">
+        <f t="shared" si="19"/>
+        <v>13744083</v>
+      </c>
+      <c r="D283" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E283" s="3">
+        <v>0</v>
+      </c>
+      <c r="F283" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G283" s="1">
+        <v>0</v>
+      </c>
+      <c r="H283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B284" s="1">
+        <v>273</v>
+      </c>
+      <c r="C284" s="2">
+        <f t="shared" si="19"/>
+        <v>13714083</v>
+      </c>
+      <c r="D284" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E284" s="3">
+        <v>0</v>
+      </c>
+      <c r="F284" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G284" s="1">
+        <v>0</v>
+      </c>
+      <c r="H284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B285" s="1">
+        <v>274</v>
+      </c>
+      <c r="C285" s="2">
+        <f t="shared" si="19"/>
+        <v>13690083</v>
+      </c>
+      <c r="D285" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E285" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F285" s="4">
+        <f t="shared" si="20"/>
+        <v>-24000</v>
+      </c>
+      <c r="G285" s="1">
+        <v>0</v>
+      </c>
+      <c r="H285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B286" s="1">
+        <v>275</v>
+      </c>
+      <c r="C286" s="2">
+        <f t="shared" si="19"/>
+        <v>13816083</v>
+      </c>
+      <c r="D286" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E286" s="3">
+        <v>156000</v>
+      </c>
+      <c r="F286" s="4">
+        <f t="shared" si="20"/>
+        <v>126000</v>
+      </c>
+      <c r="G286" s="1">
+        <v>0</v>
+      </c>
+      <c r="H286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B287" s="1">
+        <v>276</v>
+      </c>
+      <c r="C287" s="2">
+        <f t="shared" si="19"/>
+        <v>13792083</v>
+      </c>
+      <c r="D287" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E287" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F287" s="4">
+        <f t="shared" si="20"/>
+        <v>-24000</v>
+      </c>
+      <c r="G287" s="1">
+        <v>0</v>
+      </c>
+      <c r="H287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B288" s="1">
+        <v>277</v>
+      </c>
+      <c r="C288" s="2">
+        <f t="shared" si="19"/>
+        <v>13762083</v>
+      </c>
+      <c r="D288" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E288" s="3">
+        <v>0</v>
+      </c>
+      <c r="F288" s="4">
+        <f t="shared" si="20"/>
+        <v>-30000</v>
+      </c>
+      <c r="G288" s="1">
+        <v>0</v>
+      </c>
+      <c r="H288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B289" s="1">
+        <v>278</v>
+      </c>
+      <c r="C289" s="2">
+        <f t="shared" ref="C289:C315" si="21">SUM(C288,F289)</f>
+        <v>13732083</v>
+      </c>
+      <c r="D289" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E289" s="3">
+        <v>0</v>
+      </c>
+      <c r="F289" s="4">
+        <f t="shared" ref="F289:F315" si="22">SUM(-D289,E289,I289)</f>
+        <v>-30000</v>
+      </c>
+      <c r="G289" s="1">
+        <v>0</v>
+      </c>
+      <c r="H289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B290" s="1">
+        <v>279</v>
+      </c>
+      <c r="C290" s="2">
+        <f t="shared" si="21"/>
+        <v>13702083</v>
+      </c>
+      <c r="D290" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E290" s="3">
+        <v>0</v>
+      </c>
+      <c r="F290" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G290" s="1">
+        <v>0</v>
+      </c>
+      <c r="H290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B291" s="1">
+        <v>280</v>
+      </c>
+      <c r="C291" s="2">
+        <f t="shared" si="21"/>
+        <v>13672083</v>
+      </c>
+      <c r="D291" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E291" s="3">
+        <v>0</v>
+      </c>
+      <c r="F291" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G291" s="1">
+        <v>0</v>
+      </c>
+      <c r="H291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B292" s="1">
+        <v>281</v>
+      </c>
+      <c r="C292" s="2">
+        <f t="shared" si="21"/>
+        <v>13642083</v>
+      </c>
+      <c r="D292" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E292" s="3">
+        <v>0</v>
+      </c>
+      <c r="F292" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G292" s="1">
+        <v>0</v>
+      </c>
+      <c r="H292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B293" s="1">
+        <v>282</v>
+      </c>
+      <c r="C293" s="2">
+        <f t="shared" si="21"/>
+        <v>13612083</v>
+      </c>
+      <c r="D293" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E293" s="3">
+        <v>0</v>
+      </c>
+      <c r="F293" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G293" s="1">
+        <v>0</v>
+      </c>
+      <c r="H293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B294" s="1">
+        <v>283</v>
+      </c>
+      <c r="C294" s="2">
+        <f t="shared" si="21"/>
+        <v>13586583</v>
+      </c>
+      <c r="D294" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E294" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F294" s="4">
+        <f t="shared" si="22"/>
+        <v>-25500</v>
+      </c>
+      <c r="G294" s="1">
+        <v>0</v>
+      </c>
+      <c r="H294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B295" s="1">
+        <v>284</v>
+      </c>
+      <c r="C295" s="2">
+        <f t="shared" si="21"/>
+        <v>13556583</v>
+      </c>
+      <c r="D295" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E295" s="3">
+        <v>0</v>
+      </c>
+      <c r="F295" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G295" s="1">
+        <v>0</v>
+      </c>
+      <c r="H295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B296" s="1">
+        <v>285</v>
+      </c>
+      <c r="C296" s="2">
+        <f t="shared" si="21"/>
+        <v>13528083</v>
+      </c>
+      <c r="D296" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E296" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F296" s="4">
+        <f t="shared" si="22"/>
+        <v>-28500</v>
+      </c>
+      <c r="G296" s="1">
+        <v>0</v>
+      </c>
+      <c r="H296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B297" s="1">
+        <v>286</v>
+      </c>
+      <c r="C297" s="2">
+        <f t="shared" si="21"/>
+        <v>13498083</v>
+      </c>
+      <c r="D297" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E297" s="3">
+        <v>0</v>
+      </c>
+      <c r="F297" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G297" s="1">
+        <v>0</v>
+      </c>
+      <c r="H297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B298" s="1">
+        <v>287</v>
+      </c>
+      <c r="C298" s="2">
+        <f t="shared" si="21"/>
+        <v>13468083</v>
+      </c>
+      <c r="D298" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E298" s="3">
+        <v>0</v>
+      </c>
+      <c r="F298" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G298" s="1">
+        <v>0</v>
+      </c>
+      <c r="H298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B299" s="1">
+        <v>288</v>
+      </c>
+      <c r="C299" s="2">
+        <f t="shared" si="21"/>
+        <v>13447083</v>
+      </c>
+      <c r="D299" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E299" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F299" s="4">
+        <f t="shared" si="22"/>
+        <v>-21000</v>
+      </c>
+      <c r="G299" s="1">
+        <v>0</v>
+      </c>
+      <c r="H299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B300" s="1">
+        <v>289</v>
+      </c>
+      <c r="C300" s="2">
+        <f t="shared" si="21"/>
+        <v>13451583</v>
+      </c>
+      <c r="D300" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E300" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F300" s="4">
+        <f t="shared" si="22"/>
+        <v>4500</v>
+      </c>
+      <c r="G300" s="1">
+        <v>0</v>
+      </c>
+      <c r="H300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B301" s="1">
+        <v>290</v>
+      </c>
+      <c r="C301" s="2">
+        <f t="shared" si="21"/>
+        <v>13423083</v>
+      </c>
+      <c r="D301" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E301" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F301" s="4">
+        <f t="shared" si="22"/>
+        <v>-28500</v>
+      </c>
+      <c r="G301" s="1">
+        <v>0</v>
+      </c>
+      <c r="H301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B302" s="1">
+        <v>291</v>
+      </c>
+      <c r="C302" s="2">
+        <f t="shared" si="21"/>
+        <v>13397583</v>
+      </c>
+      <c r="D302" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E302" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F302" s="4">
+        <f t="shared" si="22"/>
+        <v>-25500</v>
+      </c>
+      <c r="G302" s="1">
+        <v>0</v>
+      </c>
+      <c r="H302" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B303" s="1">
+        <v>292</v>
+      </c>
+      <c r="C303" s="2">
+        <f t="shared" si="21"/>
+        <v>13367583</v>
+      </c>
+      <c r="D303" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E303" s="3">
+        <v>0</v>
+      </c>
+      <c r="F303" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G303" s="1">
+        <v>0</v>
+      </c>
+      <c r="H303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B304" s="1">
+        <v>293</v>
+      </c>
+      <c r="C304" s="2">
+        <f t="shared" si="21"/>
+        <v>13357083</v>
+      </c>
+      <c r="D304" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E304" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F304" s="4">
+        <f t="shared" si="22"/>
+        <v>-10500</v>
+      </c>
+      <c r="G304" s="1">
+        <v>0</v>
+      </c>
+      <c r="H304" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B305" s="1">
+        <v>294</v>
+      </c>
+      <c r="C305" s="2">
+        <f t="shared" si="21"/>
+        <v>13327083</v>
+      </c>
+      <c r="D305" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E305" s="3">
+        <v>0</v>
+      </c>
+      <c r="F305" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G305" s="1">
+        <v>0</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B306" s="1">
+        <v>295</v>
+      </c>
+      <c r="C306" s="2">
+        <f t="shared" si="21"/>
+        <v>13300083</v>
+      </c>
+      <c r="D306" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E306" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F306" s="4">
+        <f t="shared" si="22"/>
+        <v>-27000</v>
+      </c>
+      <c r="G306" s="1">
+        <v>0</v>
+      </c>
+      <c r="H306" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B307" s="1">
+        <v>296</v>
+      </c>
+      <c r="C307" s="2">
+        <f t="shared" si="21"/>
+        <v>13271583</v>
+      </c>
+      <c r="D307" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E307" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F307" s="4">
+        <f t="shared" si="22"/>
+        <v>-28500</v>
+      </c>
+      <c r="G307" s="1">
+        <v>0</v>
+      </c>
+      <c r="H307" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B308" s="1">
+        <v>297</v>
+      </c>
+      <c r="C308" s="2">
+        <f t="shared" si="21"/>
+        <v>13247583</v>
+      </c>
+      <c r="D308" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E308" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F308" s="4">
+        <f t="shared" si="22"/>
+        <v>-24000</v>
+      </c>
+      <c r="G308" s="1">
+        <v>0</v>
+      </c>
+      <c r="H308" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B309" s="1">
+        <v>298</v>
+      </c>
+      <c r="C309" s="2">
+        <f t="shared" si="21"/>
+        <v>13217583</v>
+      </c>
+      <c r="D309" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E309" s="3">
+        <v>0</v>
+      </c>
+      <c r="F309" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G309" s="1">
+        <v>0</v>
+      </c>
+      <c r="H309" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B310" s="1">
+        <v>299</v>
+      </c>
+      <c r="C310" s="2">
+        <f t="shared" si="21"/>
+        <v>13196583</v>
+      </c>
+      <c r="D310" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E310" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F310" s="4">
+        <f t="shared" si="22"/>
+        <v>-21000</v>
+      </c>
+      <c r="G310" s="1">
+        <v>0</v>
+      </c>
+      <c r="H310" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B311" s="1">
+        <v>300</v>
+      </c>
+      <c r="C311" s="2">
+        <f t="shared" si="21"/>
+        <v>13166583</v>
+      </c>
+      <c r="D311" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E311" s="3">
+        <v>0</v>
+      </c>
+      <c r="F311" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G311" s="1">
+        <v>0</v>
+      </c>
+      <c r="H311" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B312" s="1">
+        <v>301</v>
+      </c>
+      <c r="C312" s="2">
+        <f t="shared" si="21"/>
+        <v>15298083</v>
+      </c>
+      <c r="D312" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E312" s="3">
+        <v>2161500</v>
+      </c>
+      <c r="F312" s="4">
+        <f t="shared" si="22"/>
+        <v>2131500</v>
+      </c>
+      <c r="G312" s="1">
+        <v>1</v>
+      </c>
+      <c r="H312" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B313" s="1">
+        <v>302</v>
+      </c>
+      <c r="C313" s="2">
+        <f t="shared" si="21"/>
+        <v>15274083</v>
+      </c>
+      <c r="D313" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E313" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F313" s="4">
+        <f t="shared" si="22"/>
+        <v>-24000</v>
+      </c>
+      <c r="G313" s="1">
+        <v>0</v>
+      </c>
+      <c r="H313" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B314" s="1">
+        <v>303</v>
+      </c>
+      <c r="C314" s="2">
+        <f t="shared" si="21"/>
+        <v>15244083</v>
+      </c>
+      <c r="D314" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E314" s="3">
+        <v>0</v>
+      </c>
+      <c r="F314" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G314" s="1">
+        <v>0</v>
+      </c>
+      <c r="H314" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B315" s="1">
+        <v>304</v>
+      </c>
+      <c r="C315" s="2">
+        <f t="shared" si="21"/>
+        <v>15214083</v>
+      </c>
+      <c r="D315" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F315" s="4">
+        <f t="shared" si="22"/>
+        <v>-30000</v>
+      </c>
+      <c r="G315" s="1">
+        <v>0</v>
+      </c>
+      <c r="H315" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/爆有钱online数值还原表.xlsx
+++ b/爆有钱online数值还原表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubProj\Slot-Monitor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6201E921-CACD-4EE2-A7D5-FFAC749650AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="14055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="J金币模型" sheetId="1" r:id="rId1"/>
@@ -34,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>WIN</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,6 +94,12 @@
     <t>触发彩金游戏概率</t>
   </si>
   <si>
+    <t>旋转次数序号</t>
+  </si>
+  <si>
+    <t>剩余金币</t>
+  </si>
+  <si>
     <t>押注值</t>
   </si>
   <si>
@@ -117,25 +117,21 @@
   <si>
     <t>任务强制奖励</t>
   </si>
-  <si>
-    <t>剩余金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转次数序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,35 +147,350 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -204,9 +515,49 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -228,26 +579,290 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -256,189 +871,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -449,7 +1007,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -477,47 +1035,161 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -530,7 +1202,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -540,7 +1212,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>旋转次数</c:v>
+            <c:strRef>
+              <c:f>"旋转次数"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>旋转次数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -554,6 +1234,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'001猪模型'!$B$11:$B$315</c:f>
@@ -1479,17 +2162,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2D8-4158-BE90-A86152CC4810}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>剩余金币</c:v>
+            <c:strRef>
+              <c:f>"剩余金币"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>剩余金币</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1503,6 +2189,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'001猪模型'!$C$11:$C$315</c:f>
@@ -2428,11 +3117,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2D8-4158-BE90-A86152CC4810}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2442,6 +3126,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="436747407"/>
         <c:axId val="436744527"/>
@@ -2460,7 +3145,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2476,9 +3161,11 @@
                   <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>旋转次数</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2487,26 +3174,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2529,7 +3196,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2541,7 +3208,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="436744527"/>
@@ -2579,7 +3245,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2595,9 +3261,11 @@
                   <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>剩余金币</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2606,26 +3274,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2643,7 +3291,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2655,7 +3303,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="436747407"/>
@@ -2672,6 +3319,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2685,7 +3333,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2697,20 +3345,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f2cb5151-1f83-4628-9721-b262ccba298d}"/>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2732,9 +3377,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3302,7 +3946,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -3316,20 +3960,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41F0A61-EB59-71D9-5A9B-CF7FE0683C0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="10024745" y="1147445"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3586,12 +4224,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3601,45 +4238,45 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2">
       <c r="B11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="B6:K315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="M193" sqref="M193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
@@ -3653,7 +4290,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -3664,58 +4301,58 @@
       <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="2"/>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>3000000</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <f>1-COUNTIF(G11:G315,0)/COUNT(G11:G315)</f>
-        <v>1.63934426229508E-2</v>
-      </c>
-      <c r="H7" s="10">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="H7" s="12">
         <f>COUNTIF(G11:G315,1)/COUNT(G11:G315)</f>
-        <v>1.3114754098360701E-2</v>
-      </c>
-      <c r="I7" s="10">
+        <v>0.0131147540983607</v>
+      </c>
+      <c r="I7" s="20">
         <f>COUNTIF(G11:G315,2)/COUNT(G11:G315)</f>
-        <v>3.27868852459016E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="16" t="s">
+        <v>0.00327868852459016</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -3740,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -3765,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -3793,7 +4430,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8">
       <c r="B14" s="1">
         <v>4</v>
       </c>
@@ -3818,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="B15" s="1">
         <v>5</v>
       </c>
@@ -3843,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="B16" s="1">
         <v>6</v>
       </c>
@@ -3868,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="1">
         <v>7</v>
       </c>
@@ -3890,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9">
       <c r="B18" s="1">
         <v>8</v>
       </c>
@@ -3916,7 +4553,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9">
       <c r="B19" s="1">
         <v>9</v>
       </c>
@@ -3944,7 +4581,7 @@
         <v>710000</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="1">
         <v>10</v>
       </c>
@@ -3969,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="1">
         <v>11</v>
       </c>
@@ -3994,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="1">
         <v>12</v>
       </c>
@@ -4019,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="1">
         <v>13</v>
       </c>
@@ -4044,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="1">
         <v>14</v>
       </c>
@@ -4069,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="1">
         <v>15</v>
       </c>
@@ -4094,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11">
       <c r="B26" s="1">
         <v>16</v>
       </c>
@@ -4120,7 +4757,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="B27" s="1">
         <v>17</v>
       </c>
@@ -4145,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28" s="1">
         <v>18</v>
       </c>
@@ -4170,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="B29" s="1">
         <v>19</v>
       </c>
@@ -4195,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="1">
         <v>20</v>
       </c>
@@ -4220,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" s="1">
         <v>21</v>
       </c>
@@ -4245,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8">
       <c r="B32" s="1">
         <v>22</v>
       </c>
@@ -4270,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8">
       <c r="B33" s="1">
         <v>23</v>
       </c>
@@ -4295,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="B34" s="1">
         <v>24</v>
       </c>
@@ -4320,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8">
       <c r="B35" s="1">
         <v>25</v>
       </c>
@@ -4345,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8">
       <c r="B36" s="1">
         <v>26</v>
       </c>
@@ -4370,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8">
       <c r="B37" s="1">
         <v>27</v>
       </c>
@@ -4395,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8">
       <c r="B38" s="1">
         <v>28</v>
       </c>
@@ -4420,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8">
       <c r="B39" s="1">
         <v>29</v>
       </c>
@@ -4445,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8">
       <c r="B40" s="1">
         <v>30</v>
       </c>
@@ -4470,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8">
       <c r="B41" s="1">
         <v>31</v>
       </c>
@@ -4495,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="1">
         <v>32</v>
       </c>
@@ -4520,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="1">
         <v>33</v>
       </c>
@@ -4545,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8">
       <c r="B44" s="1">
         <v>34</v>
       </c>
@@ -4570,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8">
       <c r="B45" s="1">
         <v>35</v>
       </c>
@@ -4595,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="B46" s="1">
         <v>36</v>
       </c>
@@ -4620,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8">
       <c r="B47" s="1">
         <v>37</v>
       </c>
@@ -4645,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8">
       <c r="B48" s="1">
         <v>38</v>
       </c>
@@ -4670,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="B49" s="1">
         <v>39</v>
       </c>
@@ -4695,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" s="1">
         <v>40</v>
       </c>
@@ -4720,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" s="1">
         <v>41</v>
       </c>
@@ -4745,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="1">
         <v>42</v>
       </c>
@@ -4770,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="1">
         <v>43</v>
       </c>
@@ -4795,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="B54" s="1">
         <v>44</v>
       </c>
@@ -4820,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="B55" s="1">
         <v>45</v>
       </c>
@@ -4845,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="1">
         <v>46</v>
       </c>
@@ -4870,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="1">
         <v>47</v>
       </c>
@@ -4895,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9">
       <c r="B58" s="1">
         <v>48</v>
       </c>
@@ -4923,7 +5560,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9">
       <c r="B59" s="1">
         <v>49</v>
       </c>
@@ -4951,7 +5588,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8">
       <c r="B60" s="1">
         <v>50</v>
       </c>
@@ -4976,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8">
       <c r="B61" s="1">
         <v>51</v>
       </c>
@@ -5001,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8">
       <c r="B62" s="1">
         <v>52</v>
       </c>
@@ -5026,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8">
       <c r="B63" s="1">
         <v>53</v>
       </c>
@@ -5051,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8">
       <c r="B64" s="1">
         <v>54</v>
       </c>
@@ -5076,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:8">
       <c r="B65" s="1">
         <v>55</v>
       </c>
@@ -5101,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:8">
       <c r="B66" s="1">
         <v>56</v>
       </c>
@@ -5126,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:8">
       <c r="B67" s="1">
         <v>57</v>
       </c>
@@ -5151,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:8">
       <c r="B68" s="1">
         <v>58</v>
       </c>
@@ -5176,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:8">
       <c r="B69" s="1">
         <v>59</v>
       </c>
@@ -5201,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:8">
       <c r="B70" s="1">
         <v>60</v>
       </c>
@@ -5226,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:8">
       <c r="B71" s="1">
         <v>61</v>
       </c>
@@ -5251,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:8">
       <c r="B72" s="1">
         <v>62</v>
       </c>
@@ -5276,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:8">
       <c r="B73" s="1">
         <v>63</v>
       </c>
@@ -5301,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:8">
       <c r="B74" s="1">
         <v>64</v>
       </c>
@@ -5326,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:8">
       <c r="B75" s="1">
         <v>65</v>
       </c>
@@ -5351,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:8">
       <c r="B76" s="1">
         <v>66</v>
       </c>
@@ -5376,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:8">
       <c r="B77" s="1">
         <v>67</v>
       </c>
@@ -5401,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:8">
       <c r="B78" s="1">
         <v>68</v>
       </c>
@@ -5426,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:8">
       <c r="B79" s="1">
         <v>69</v>
       </c>
@@ -5451,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9">
       <c r="B80" s="1">
         <v>70</v>
       </c>
@@ -5479,7 +6116,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8">
       <c r="B81" s="1">
         <v>71</v>
       </c>
@@ -5504,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:8">
       <c r="B82" s="1">
         <v>72</v>
       </c>
@@ -5529,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8">
       <c r="B83" s="1">
         <v>73</v>
       </c>
@@ -5554,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8">
       <c r="B84" s="1">
         <v>74</v>
       </c>
@@ -5579,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8">
       <c r="B85" s="1">
         <v>75</v>
       </c>
@@ -5604,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8">
       <c r="B86" s="1">
         <v>76</v>
       </c>
@@ -5629,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8">
       <c r="B87" s="1">
         <v>77</v>
       </c>
@@ -5654,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:8">
       <c r="B88" s="1">
         <v>78</v>
       </c>
@@ -5679,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8">
       <c r="B89" s="1">
         <v>79</v>
       </c>
@@ -5704,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8">
       <c r="B90" s="1">
         <v>80</v>
       </c>
@@ -5729,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8">
       <c r="B91" s="1">
         <v>81</v>
       </c>
@@ -5754,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8">
       <c r="B92" s="1">
         <v>82</v>
       </c>
@@ -5779,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8">
       <c r="B93" s="1">
         <v>83</v>
       </c>
@@ -5804,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8">
       <c r="B94" s="1">
         <v>84</v>
       </c>
@@ -5829,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8">
       <c r="B95" s="1">
         <v>85</v>
       </c>
@@ -5854,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8">
       <c r="B96" s="1">
         <v>86</v>
       </c>
@@ -5879,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:8">
       <c r="B97" s="1">
         <v>87</v>
       </c>
@@ -5904,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8">
       <c r="B98" s="1">
         <v>88</v>
       </c>
@@ -5929,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8">
       <c r="B99" s="1">
         <v>89</v>
       </c>
@@ -5954,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8">
       <c r="B100" s="1">
         <v>90</v>
       </c>
@@ -5979,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8">
       <c r="B101" s="1">
         <v>91</v>
       </c>
@@ -6004,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8">
       <c r="B102" s="1">
         <v>92</v>
       </c>
@@ -6029,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8">
       <c r="B103" s="1">
         <v>93</v>
       </c>
@@ -6054,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8">
       <c r="B104" s="1">
         <v>94</v>
       </c>
@@ -6079,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:8">
       <c r="B105" s="1">
         <v>95</v>
       </c>
@@ -6104,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:8">
       <c r="B106" s="1">
         <v>96</v>
       </c>
@@ -6129,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:8">
       <c r="B107" s="1">
         <v>97</v>
       </c>
@@ -6154,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:8">
       <c r="B108" s="1">
         <v>98</v>
       </c>
@@ -6179,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:8">
       <c r="B109" s="1">
         <v>99</v>
       </c>
@@ -6204,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:8">
       <c r="B110" s="1">
         <v>100</v>
       </c>
@@ -6229,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:8">
       <c r="B111" s="1">
         <v>101</v>
       </c>
@@ -6254,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:8">
       <c r="B112" s="1">
         <v>102</v>
       </c>
@@ -6279,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:8">
       <c r="B113" s="1">
         <v>103</v>
       </c>
@@ -6304,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:8">
       <c r="B114" s="1">
         <v>104</v>
       </c>
@@ -6329,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:8">
       <c r="B115" s="1">
         <v>105</v>
       </c>
@@ -6354,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:8">
       <c r="B116" s="1">
         <v>106</v>
       </c>
@@ -6379,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:8">
       <c r="B117" s="1">
         <v>107</v>
       </c>
@@ -6404,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:8">
       <c r="B118" s="1">
         <v>108</v>
       </c>
@@ -6429,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:8">
       <c r="B119" s="1">
         <v>109</v>
       </c>
@@ -6454,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:8">
       <c r="B120" s="1">
         <v>110</v>
       </c>
@@ -6479,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:8">
       <c r="B121" s="1">
         <v>111</v>
       </c>
@@ -6504,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:8">
       <c r="B122" s="1">
         <v>112</v>
       </c>
@@ -6529,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:8">
       <c r="B123" s="1">
         <v>113</v>
       </c>
@@ -6554,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:8">
       <c r="B124" s="1">
         <v>113</v>
       </c>
@@ -6579,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:8">
       <c r="B125" s="1">
         <v>114</v>
       </c>
@@ -6604,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:8">
       <c r="B126" s="1">
         <v>115</v>
       </c>
@@ -6629,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:8">
       <c r="B127" s="1">
         <v>116</v>
       </c>
@@ -6654,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:8">
       <c r="B128" s="1">
         <v>117</v>
       </c>
@@ -6679,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:8">
       <c r="B129" s="1">
         <v>118</v>
       </c>
@@ -6704,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:9">
       <c r="B130" s="1">
         <v>119</v>
       </c>
@@ -6732,7 +7369,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:8">
       <c r="B131" s="1">
         <v>120</v>
       </c>
@@ -6757,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:8">
       <c r="B132" s="1">
         <v>121</v>
       </c>
@@ -6782,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:8">
       <c r="B133" s="1">
         <v>122</v>
       </c>
@@ -6807,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:8">
       <c r="B134" s="1">
         <v>123</v>
       </c>
@@ -6832,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:8">
       <c r="B135" s="1">
         <v>124</v>
       </c>
@@ -6857,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:8">
       <c r="B136" s="1">
         <v>125</v>
       </c>
@@ -6882,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:8">
       <c r="B137" s="1">
         <v>126</v>
       </c>
@@ -6907,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:8">
       <c r="B138" s="1">
         <v>127</v>
       </c>
@@ -6932,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:8">
       <c r="B139" s="1">
         <v>128</v>
       </c>
@@ -6957,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:8">
       <c r="B140" s="1">
         <v>129</v>
       </c>
@@ -6982,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:8">
       <c r="B141" s="1">
         <v>130</v>
       </c>
@@ -7007,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:8">
       <c r="B142" s="1">
         <v>131</v>
       </c>
@@ -7032,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:8">
       <c r="B143" s="1">
         <v>132</v>
       </c>
@@ -7057,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:8">
       <c r="B144" s="1">
         <v>133</v>
       </c>
@@ -7082,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:8">
       <c r="B145" s="1">
         <v>134</v>
       </c>
@@ -7107,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:8">
       <c r="B146" s="1">
         <v>135</v>
       </c>
@@ -7132,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:8">
       <c r="B147" s="1">
         <v>136</v>
       </c>
@@ -7157,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:8">
       <c r="B148" s="1">
         <v>137</v>
       </c>
@@ -7182,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:8">
       <c r="B149" s="1">
         <v>138</v>
       </c>
@@ -7207,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:8">
       <c r="B150" s="1">
         <v>139</v>
       </c>
@@ -7232,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:8">
       <c r="B151" s="1">
         <v>140</v>
       </c>
@@ -7257,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:8">
       <c r="B152" s="1">
         <v>141</v>
       </c>
@@ -7282,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:8">
       <c r="B153" s="1">
         <v>142</v>
       </c>
@@ -7307,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:8">
       <c r="B154" s="1">
         <v>143</v>
       </c>
@@ -7332,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:8">
       <c r="B155" s="1">
         <v>144</v>
       </c>
@@ -7357,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:8">
       <c r="B156" s="1">
         <v>145</v>
       </c>
@@ -7382,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:8">
       <c r="B157" s="1">
         <v>146</v>
       </c>
@@ -7407,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:8">
       <c r="B158" s="1">
         <v>147</v>
       </c>
@@ -7432,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:8">
       <c r="B159" s="1">
         <v>148</v>
       </c>
@@ -7457,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:8">
       <c r="B160" s="1">
         <v>149</v>
       </c>
@@ -7482,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:8">
       <c r="B161" s="1">
         <v>150</v>
       </c>
@@ -7507,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:8">
       <c r="B162" s="1">
         <v>151</v>
       </c>
@@ -7532,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:8">
       <c r="B163" s="1">
         <v>152</v>
       </c>
@@ -7557,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:8">
       <c r="B164" s="1">
         <v>153</v>
       </c>
@@ -7582,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:8">
       <c r="B165" s="1">
         <v>154</v>
       </c>
@@ -7607,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:8">
       <c r="B166" s="1">
         <v>155</v>
       </c>
@@ -7632,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:8">
       <c r="B167" s="1">
         <v>156</v>
       </c>
@@ -7657,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:8">
       <c r="B168" s="1">
         <v>157</v>
       </c>
@@ -7682,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:8">
       <c r="B169" s="1">
         <v>158</v>
       </c>
@@ -7707,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:8">
       <c r="B170" s="1">
         <v>159</v>
       </c>
@@ -7732,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:8">
       <c r="B171" s="1">
         <v>160</v>
       </c>
@@ -7757,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:8">
       <c r="B172" s="1">
         <v>161</v>
       </c>
@@ -7782,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:8">
       <c r="B173" s="1">
         <v>162</v>
       </c>
@@ -7807,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:8">
       <c r="B174" s="1">
         <v>163</v>
       </c>
@@ -7832,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:8">
       <c r="B175" s="1">
         <v>164</v>
       </c>
@@ -7857,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:8">
       <c r="B176" s="1">
         <v>165</v>
       </c>
@@ -7882,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:8">
       <c r="B177" s="1">
         <v>166</v>
       </c>
@@ -7907,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:8">
       <c r="B178" s="1">
         <v>167</v>
       </c>
@@ -7932,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:8">
       <c r="B179" s="1">
         <v>168</v>
       </c>
@@ -7957,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:8">
       <c r="B180" s="1">
         <v>169</v>
       </c>
@@ -7982,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:8">
       <c r="B181" s="1">
         <v>170</v>
       </c>
@@ -8007,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:8">
       <c r="B182" s="1">
         <v>171</v>
       </c>
@@ -8032,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:8">
       <c r="B183" s="1">
         <v>172</v>
       </c>
@@ -8057,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:8">
       <c r="B184" s="1">
         <v>173</v>
       </c>
@@ -8082,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:8">
       <c r="B185" s="1">
         <v>174</v>
       </c>
@@ -8107,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:8">
       <c r="B186" s="1">
         <v>175</v>
       </c>
@@ -8132,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:8">
       <c r="B187" s="1">
         <v>176</v>
       </c>
@@ -8157,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:8">
       <c r="B188" s="1">
         <v>177</v>
       </c>
@@ -8182,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:8">
       <c r="B189" s="1">
         <v>178</v>
       </c>
@@ -8207,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:8">
       <c r="B190" s="1">
         <v>179</v>
       </c>
@@ -8232,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:8">
       <c r="B191" s="1">
         <v>180</v>
       </c>
@@ -8257,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:8">
       <c r="B192" s="1">
         <v>181</v>
       </c>
@@ -8282,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:8">
       <c r="B193" s="1">
         <v>182</v>
       </c>
@@ -8307,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:8">
       <c r="B194" s="1">
         <v>183</v>
       </c>
@@ -8332,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:8">
       <c r="B195" s="1">
         <v>184</v>
       </c>
@@ -8357,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:8">
       <c r="B196" s="1">
         <v>185</v>
       </c>
@@ -8382,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:8">
       <c r="B197" s="1">
         <v>186</v>
       </c>
@@ -8407,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:8">
       <c r="B198" s="1">
         <v>187</v>
       </c>
@@ -8432,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:8">
       <c r="B199" s="1">
         <v>188</v>
       </c>
@@ -8457,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:8">
       <c r="B200" s="1">
         <v>189</v>
       </c>
@@ -8482,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:8">
       <c r="B201" s="1">
         <v>190</v>
       </c>
@@ -8507,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:8">
       <c r="B202" s="1">
         <v>191</v>
       </c>
@@ -8532,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:8">
       <c r="B203" s="1">
         <v>192</v>
       </c>
@@ -8557,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:8">
       <c r="B204" s="1">
         <v>193</v>
       </c>
@@ -8582,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:8">
       <c r="B205" s="1">
         <v>194</v>
       </c>
@@ -8607,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:8">
       <c r="B206" s="1">
         <v>195</v>
       </c>
@@ -8632,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:8">
       <c r="B207" s="1">
         <v>196</v>
       </c>
@@ -8657,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:8">
       <c r="B208" s="1">
         <v>197</v>
       </c>
@@ -8682,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:8">
       <c r="B209" s="1">
         <v>198</v>
       </c>
@@ -8707,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:9">
       <c r="B210" s="1">
         <v>199</v>
       </c>
@@ -8735,7 +9372,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:8">
       <c r="B211" s="1">
         <v>200</v>
       </c>
@@ -8760,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:8">
       <c r="B212" s="1">
         <v>201</v>
       </c>
@@ -8785,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:8">
       <c r="B213" s="1">
         <v>202</v>
       </c>
@@ -8810,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:8">
       <c r="B214" s="1">
         <v>203</v>
       </c>
@@ -8835,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:8">
       <c r="B215" s="1">
         <v>204</v>
       </c>
@@ -8860,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:8">
       <c r="B216" s="1">
         <v>205</v>
       </c>
@@ -8885,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:8">
       <c r="B217" s="1">
         <v>206</v>
       </c>
@@ -8910,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:8">
       <c r="B218" s="1">
         <v>207</v>
       </c>
@@ -8935,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:8">
       <c r="B219" s="1">
         <v>208</v>
       </c>
@@ -8960,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:8">
       <c r="B220" s="1">
         <v>209</v>
       </c>
@@ -8985,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:8">
       <c r="B221" s="1">
         <v>210</v>
       </c>
@@ -9010,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:8">
       <c r="B222" s="1">
         <v>211</v>
       </c>
@@ -9035,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:8">
       <c r="B223" s="1">
         <v>212</v>
       </c>
@@ -9060,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:8">
       <c r="B224" s="1">
         <v>213</v>
       </c>
@@ -9085,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:8">
       <c r="B225" s="1">
         <v>214</v>
       </c>
@@ -9110,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:8">
       <c r="B226" s="1">
         <v>215</v>
       </c>
@@ -9135,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:8">
       <c r="B227" s="1">
         <v>216</v>
       </c>
@@ -9160,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:8">
       <c r="B228" s="1">
         <v>217</v>
       </c>
@@ -9185,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:8">
       <c r="B229" s="1">
         <v>218</v>
       </c>
@@ -9210,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:8">
       <c r="B230" s="1">
         <v>219</v>
       </c>
@@ -9235,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:8">
       <c r="B231" s="1">
         <v>220</v>
       </c>
@@ -9260,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:8">
       <c r="B232" s="1">
         <v>221</v>
       </c>
@@ -9285,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:8">
       <c r="B233" s="1">
         <v>222</v>
       </c>
@@ -9310,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:8">
       <c r="B234" s="1">
         <v>223</v>
       </c>
@@ -9335,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:8">
       <c r="B235" s="1">
         <v>224</v>
       </c>
@@ -9360,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:8">
       <c r="B236" s="1">
         <v>225</v>
       </c>
@@ -9385,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:8">
       <c r="B237" s="1">
         <v>226</v>
       </c>
@@ -9410,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:8">
       <c r="B238" s="1">
         <v>227</v>
       </c>
@@ -9435,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:8">
       <c r="B239" s="1">
         <v>228</v>
       </c>
@@ -9460,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:8">
       <c r="B240" s="1">
         <v>229</v>
       </c>
@@ -9485,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:8">
       <c r="B241" s="1">
         <v>230</v>
       </c>
@@ -9510,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:8">
       <c r="B242" s="1">
         <v>231</v>
       </c>
@@ -9535,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:8">
       <c r="B243" s="1">
         <v>232</v>
       </c>
@@ -9560,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:8">
       <c r="B244" s="1">
         <v>233</v>
       </c>
@@ -9585,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:8">
       <c r="B245" s="1">
         <v>234</v>
       </c>
@@ -9610,7 +10247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:8">
       <c r="B246" s="1">
         <v>235</v>
       </c>
@@ -9635,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:8">
       <c r="B247" s="1">
         <v>236</v>
       </c>
@@ -9660,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:8">
       <c r="B248" s="1">
         <v>237</v>
       </c>
@@ -9685,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:8">
       <c r="B249" s="1">
         <v>238</v>
       </c>
@@ -9710,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:8">
       <c r="B250" s="1">
         <v>239</v>
       </c>
@@ -9735,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:8">
       <c r="B251" s="1">
         <v>240</v>
       </c>
@@ -9760,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:8">
       <c r="B252" s="1">
         <v>241</v>
       </c>
@@ -9785,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:8">
       <c r="B253" s="1">
         <v>242</v>
       </c>
@@ -9810,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:8">
       <c r="B254" s="1">
         <v>243</v>
       </c>
@@ -9835,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:8">
       <c r="B255" s="1">
         <v>244</v>
       </c>
@@ -9860,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:8">
       <c r="B256" s="1">
         <v>245</v>
       </c>
@@ -9885,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:8">
       <c r="B257" s="1">
         <v>246</v>
       </c>
@@ -9910,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:8">
       <c r="B258" s="1">
         <v>247</v>
       </c>
@@ -9935,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:8">
       <c r="B259" s="1">
         <v>248</v>
       </c>
@@ -9960,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:8">
       <c r="B260" s="1">
         <v>249</v>
       </c>
@@ -9985,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:8">
       <c r="B261" s="1">
         <v>250</v>
       </c>
@@ -10010,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:8">
       <c r="B262" s="1">
         <v>251</v>
       </c>
@@ -10035,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:8">
       <c r="B263" s="1">
         <v>252</v>
       </c>
@@ -10060,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:8">
       <c r="B264" s="1">
         <v>253</v>
       </c>
@@ -10085,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:8">
       <c r="B265" s="1">
         <v>254</v>
       </c>
@@ -10110,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:8">
       <c r="B266" s="1">
         <v>255</v>
       </c>
@@ -10135,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:8">
       <c r="B267" s="1">
         <v>256</v>
       </c>
@@ -10160,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:8">
       <c r="B268" s="1">
         <v>257</v>
       </c>
@@ -10185,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:8">
       <c r="B269" s="1">
         <v>258</v>
       </c>
@@ -10210,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:8">
       <c r="B270" s="1">
         <v>259</v>
       </c>
@@ -10235,7 +10872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:8">
       <c r="B271" s="1">
         <v>260</v>
       </c>
@@ -10260,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:8">
       <c r="B272" s="1">
         <v>261</v>
       </c>
@@ -10285,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:8">
       <c r="B273" s="1">
         <v>262</v>
       </c>
@@ -10310,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:8">
       <c r="B274" s="1">
         <v>263</v>
       </c>
@@ -10335,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:8">
       <c r="B275" s="1">
         <v>264</v>
       </c>
@@ -10360,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:8">
       <c r="B276" s="1">
         <v>265</v>
       </c>
@@ -10385,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:8">
       <c r="B277" s="1">
         <v>266</v>
       </c>
@@ -10410,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:8">
       <c r="B278" s="1">
         <v>267</v>
       </c>
@@ -10435,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:8">
       <c r="B279" s="1">
         <v>268</v>
       </c>
@@ -10460,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:8">
       <c r="B280" s="1">
         <v>269</v>
       </c>
@@ -10485,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:8">
       <c r="B281" s="1">
         <v>270</v>
       </c>
@@ -10510,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:8">
       <c r="B282" s="1">
         <v>271</v>
       </c>
@@ -10535,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:8">
       <c r="B283" s="1">
         <v>272</v>
       </c>
@@ -10560,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:8">
       <c r="B284" s="1">
         <v>273</v>
       </c>
@@ -10585,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:8">
       <c r="B285" s="1">
         <v>274</v>
       </c>
@@ -10610,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:8">
       <c r="B286" s="1">
         <v>275</v>
       </c>
@@ -10635,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:8">
       <c r="B287" s="1">
         <v>276</v>
       </c>
@@ -10660,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:8">
       <c r="B288" s="1">
         <v>277</v>
       </c>
@@ -10685,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:8">
       <c r="B289" s="1">
         <v>278</v>
       </c>
@@ -10710,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:8">
       <c r="B290" s="1">
         <v>279</v>
       </c>
@@ -10735,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:8">
       <c r="B291" s="1">
         <v>280</v>
       </c>
@@ -10760,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:8">
       <c r="B292" s="1">
         <v>281</v>
       </c>
@@ -10785,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:8">
       <c r="B293" s="1">
         <v>282</v>
       </c>
@@ -10810,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:8">
       <c r="B294" s="1">
         <v>283</v>
       </c>
@@ -10835,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:8">
       <c r="B295" s="1">
         <v>284</v>
       </c>
@@ -10860,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:8">
       <c r="B296" s="1">
         <v>285</v>
       </c>
@@ -10885,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:8">
       <c r="B297" s="1">
         <v>286</v>
       </c>
@@ -10910,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:8">
       <c r="B298" s="1">
         <v>287</v>
       </c>
@@ -10935,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:8">
       <c r="B299" s="1">
         <v>288</v>
       </c>
@@ -10960,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:8">
       <c r="B300" s="1">
         <v>289</v>
       </c>
@@ -10985,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:8">
       <c r="B301" s="1">
         <v>290</v>
       </c>
@@ -11010,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:8">
       <c r="B302" s="1">
         <v>291</v>
       </c>
@@ -11035,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:8">
       <c r="B303" s="1">
         <v>292</v>
       </c>
@@ -11060,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:8">
       <c r="B304" s="1">
         <v>293</v>
       </c>
@@ -11085,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:8">
       <c r="B305" s="1">
         <v>294</v>
       </c>
@@ -11110,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:8">
       <c r="B306" s="1">
         <v>295</v>
       </c>
@@ -11135,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:8">
       <c r="B307" s="1">
         <v>296</v>
       </c>
@@ -11160,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:8">
       <c r="B308" s="1">
         <v>297</v>
       </c>
@@ -11185,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:8">
       <c r="B309" s="1">
         <v>298</v>
       </c>
@@ -11210,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:8">
       <c r="B310" s="1">
         <v>299</v>
       </c>
@@ -11235,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:8">
       <c r="B311" s="1">
         <v>300</v>
       </c>
@@ -11260,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:8">
       <c r="B312" s="1">
         <v>301</v>
       </c>
@@ -11285,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:8">
       <c r="B313" s="1">
         <v>302</v>
       </c>
@@ -11310,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:8">
       <c r="B314" s="1">
         <v>303</v>
       </c>
@@ -11335,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:8">
       <c r="B315" s="1">
         <v>304</v>
       </c>
@@ -11358,9 +11995,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/爆有钱online数值还原表.xlsx
+++ b/爆有钱online数值还原表.xlsx
@@ -131,14 +131,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,13 +712,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,122 +730,119 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -883,16 +876,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -905,6 +901,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4241,13 +4240,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="10" spans="2:7">
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
@@ -4273,7 +4272,7 @@
   <dimension ref="B6:K315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4304,7 +4303,7 @@
       <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4313,42 +4312,46 @@
       <c r="C7" s="10">
         <v>3000000</v>
       </c>
-      <c r="G7" s="11">
+      <c r="E7" s="11">
+        <f>SUM(E11:E315)/SUM(D11:D315)</f>
+        <v>2.01410743169399</v>
+      </c>
+      <c r="G7" s="12">
         <f>1-COUNTIF(G11:G315,0)/COUNT(G11:G315)</f>
         <v>0.0163934426229508</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <f>COUNTIF(G11:G315,1)/COUNT(G11:G315)</f>
         <v>0.0131147540983607</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="22">
         <f>COUNTIF(G11:G315,2)/COUNT(G11:G315)</f>
         <v>0.00327868852459016</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4426,7 +4429,7 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="20">
         <v>105000</v>
       </c>
     </row>
@@ -4551,7 +4554,7 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
@@ -4742,7 +4745,7 @@
       <c r="D26" s="3">
         <v>30000</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="20">
         <v>0</v>
       </c>
       <c r="F26" s="4">
